--- a/RecognitionSystems/Lab4/MetricsMaxInf.xlsx
+++ b/RecognitionSystems/Lab4/MetricsMaxInf.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1905" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="2805" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,117 +14,96 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
-  <si>
-    <t xml:space="preserve"> 462.25</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
   <si>
     <t xml:space="preserve"> 150.06</t>
   </si>
   <si>
-    <t xml:space="preserve"> 4.44522</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 380.25</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 139.54</t>
   </si>
   <si>
-    <t xml:space="preserve"> 3.11479</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1296.00</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 280.56</t>
   </si>
   <si>
-    <t xml:space="preserve"> 5.04455</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 529.00</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 201.29</t>
   </si>
   <si>
-    <t xml:space="preserve"> 4.19882</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2704.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 859.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8.74477</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 992.25</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 317.29</t>
   </si>
   <si>
-    <t xml:space="preserve"> 4.67025</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1764.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 570.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6.94361</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 961.00</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 297.56</t>
   </si>
   <si>
-    <t xml:space="preserve"> 5.19149</t>
-  </si>
-  <si>
     <t>Class</t>
   </si>
   <si>
-    <t>LocalEapprxmaxVal</t>
+    <t>LocalEdetmaxLvl</t>
   </si>
   <si>
     <t>LocalEdetmaxVal</t>
   </si>
   <si>
+    <t>GlobalEdetmaxLvl</t>
+  </si>
+  <si>
     <t>standard deviation</t>
   </si>
   <si>
     <t>ACF_max_val</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.88298</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.88457</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.88879</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.90232</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.92042</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.92486</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.90416</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.90701</t>
+    <t xml:space="preserve"> 3.34672</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.87521</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.23798</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.86315</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.47533</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.87818</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.13475</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.90100</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1004.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.67267</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.91954</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.32609</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.91410</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 597.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.53871</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.90339</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.53869</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.89457</t>
   </si>
 </sst>
 </file>
@@ -466,171 +445,359 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
         <v>25</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
         <v>26</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F12" t="s">
         <v>27</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
         <v>20</v>
       </c>
-      <c r="E8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
         <v>21</v>
       </c>
-      <c r="C9" t="s">
+      <c r="F17" t="s">
         <v>22</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
